--- a/20241226_실시간데이터처리_REF/Data/Config.xlsx
+++ b/20241226_실시간데이터처리_REF/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UIPATH\6_이력서작성용\20241226_실시간데이터처리_REF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6ACE80-6B20-4AF1-9147-B50B17238213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8870C16E-FCD0-4E70-855B-6BBAF76AF26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14220" yWindow="-15810" windowWidth="22815" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15180" yWindow="-14400" windowWidth="22815" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -166,12 +166,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>RPAKR_Login</t>
-  </si>
-  <si>
-    <t>cplus1004@gmail.com's workspace</t>
-  </si>
-  <si>
     <t>https://rpakr.com/lab/realtime_data</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -181,6 +175,69 @@
   </si>
   <si>
     <t>https://rpakr.com/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RPAKR_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cplus@hanmail.net</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>07_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실시간데이터처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>결과경로</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Output</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>결과파일명</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>반복수행</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -188,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -231,6 +288,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -252,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,7 +335,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -580,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -643,9 +714,7 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
@@ -666,29 +735,50 @@
       <c r="A6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1675,7 +1765,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
